--- a/excels/cast_abilities.xlsx
+++ b/excels/cast_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="90">
   <si>
     <t>名字</t>
   </si>
@@ -142,7 +142,7 @@
     <t>toughness 0</t>
   </si>
   <si>
-    <t>hardness 3</t>
+    <t>hardness 1</t>
   </si>
   <si>
     <t>weight 0</t>
@@ -169,9 +169,6 @@
     <t>basic_damage 300</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
   </si>
   <si>
@@ -191,6 +188,102 @@
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_BASIC | DOTA_UNIT_TARGET_HERO</t>
+  </si>
+  <si>
+    <t>cast_bow_bow</t>
+  </si>
+  <si>
+    <t>abilities/cast/bow/cast_bow_bow</t>
+  </si>
+  <si>
+    <t>toughness 1</t>
+  </si>
+  <si>
+    <t>cast_bow_bowstring</t>
+  </si>
+  <si>
+    <t>abilities/cast/bow/cast_bow_bowstring</t>
+  </si>
+  <si>
+    <t>hardness 0</t>
+  </si>
+  <si>
+    <t>cast_bow_armed</t>
+  </si>
+  <si>
+    <t>abilities/cast/bow/cast_bow_armed</t>
+  </si>
+  <si>
+    <t>basic_damage 100</t>
+  </si>
+  <si>
+    <t>windrunner_shackleshot</t>
+  </si>
+  <si>
+    <t>cast_banner_flagpole</t>
+  </si>
+  <si>
+    <t>abilities/cast/banner/cast_banner_flagpole</t>
+  </si>
+  <si>
+    <t>cast_banner_flag</t>
+  </si>
+  <si>
+    <t>abilities/cast/banner/cast_banner_flag</t>
+  </si>
+  <si>
+    <t>cast_banner_aura</t>
+  </si>
+  <si>
+    <t>abilities/cast/banner/cast_banner_aura</t>
+  </si>
+  <si>
+    <t>damage_interval 1</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+  </si>
+  <si>
+    <t>cast_tower_root</t>
+  </si>
+  <si>
+    <t>abilities/cast/tower/cast_tower_root</t>
+  </si>
+  <si>
+    <t>weight 1</t>
+  </si>
+  <si>
+    <t>cast_tower_shell</t>
+  </si>
+  <si>
+    <t>abilities/cast/tower/cast_tower_shell</t>
+  </si>
+  <si>
+    <t>cast_tower_suppress</t>
+  </si>
+  <si>
+    <t>abilities/cast/tower/cast_tower_suppress</t>
+  </si>
+  <si>
+    <t>cast_shield_surface</t>
+  </si>
+  <si>
+    <t>abilities/cast/shield/cast_shield_surface</t>
+  </si>
+  <si>
+    <t>cast_shield_body</t>
+  </si>
+  <si>
+    <t>abilities/cast/shield/cast_shield_body</t>
+  </si>
+  <si>
+    <t>cast_shield_armed</t>
+  </si>
+  <si>
+    <t>abilities/cast/shield/cast_shield_armed</t>
+  </si>
+  <si>
+    <t>mars_gods_rebuke</t>
   </si>
 </sst>
 </file>
@@ -198,7 +291,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,12 +302,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -246,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -257,16 +344,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -586,45 +667,45 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="44.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="35.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="36.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="44.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="8" width="50.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="10" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="8" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="10" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="8" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="10" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="36.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="8" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -674,10 +755,10 @@
       <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="5"/>
+      <c r="X1" s="4"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="2" t="s">
@@ -705,31 +786,31 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>3</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>4</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>6</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>7</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>8</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -759,13 +840,13 @@
       <c r="V2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="Z2" s="1" t="s">
@@ -802,21 +883,21 @@
         <v>40</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="1"/>
       <c r="O3" s="2">
         <v>1</v>
@@ -839,10 +920,10 @@
       <c r="W3" s="2">
         <v>0</v>
       </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6"/>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="2">
         <v>1</v>
@@ -856,7 +937,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -867,21 +948,21 @@
         <v>47</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="2">
         <v>1</v>
@@ -904,10 +985,10 @@
       <c r="W4" s="2">
         <v>0</v>
       </c>
-      <c r="X4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6"/>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="2">
         <v>1</v>
@@ -921,7 +1002,7 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -932,21 +1013,17 @@
         <v>49</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="2">
         <v>1</v>
@@ -961,7 +1038,7 @@
         <v>48</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -969,10 +1046,10 @@
       <c r="W5" s="2">
         <v>0</v>
       </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6"/>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="2">
         <v>1</v>
@@ -986,32 +1063,28 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="2">
         <v>1</v>
@@ -1023,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="2">
         <v>0</v>
       </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6"/>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="2">
         <v>1</v>
@@ -1055,6 +1128,780 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33">
+      <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
